--- a/Assignment1.xlsx
+++ b/Assignment1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D67AB2-A344-40D7-80FC-9161871926B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74924A7-2B0D-440B-B5D9-ED069E27A910}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{126D2D37-2242-48EA-9E9D-09A08147E8D2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{126D2D37-2242-48EA-9E9D-09A08147E8D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,10 @@
     <definedName name="First_Class">Sheet1!$G$2,Sheet1!$G$4,Sheet1!$G$7,Sheet1!$G$8,Sheet1!$G$10,Sheet1!$G$13,Sheet1!$G$16,Sheet1!$G$18,Sheet1!$G$21,Sheet1!$G$25,Sheet1!$G$29,Sheet1!$G$32</definedName>
     <definedName name="Ship_mode">Sheet1!$G$2:$G$32</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -306,7 +299,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,12 +393,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -414,14 +404,20 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -740,11 +736,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BE37CE-2DD0-4FCD-A8D4-8FF147A4788B}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35:D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.42578125" customWidth="1"/>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
@@ -753,44 +749,44 @@
     <col min="5" max="5" width="18.42578125" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" ht="21" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -812,18 +808,18 @@
       <c r="G2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="9">
         <v>261.95999999999998</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="9">
         <v>41.913600000000002</v>
       </c>
-      <c r="J2" s="2">
-        <f t="shared" ref="J2:J32" si="0">IF(Ship_mode="Same Day",H2*0.2,IF(Ship_mode="First Class",H2*0.1,IF(Ship_mode="Standard Class",H2*0.5,IF(Ship_mode=" ","Null"))))</f>
+      <c r="J2" s="7">
+        <f>IF(Ship_mode="Same Day",H2*0.2,IF(Ship_mode="First Class",H2*0.1,IF(Ship_mode="Standard Class",H2*0.5,0)))</f>
         <v>26.195999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -842,21 +838,21 @@
       <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="9">
         <v>731.94</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="9">
         <v>219.58199999999999</v>
       </c>
-      <c r="J3" s="2">
-        <f t="shared" si="0"/>
+      <c r="J3" s="7">
+        <f>IF(Ship_mode="Same Day",H3*0.2,IF(Ship_mode="First Class",H3*0.1,IF(Ship_mode="Standard Class",H3*0.5,0)))</f>
         <v>146.38800000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -878,18 +874,18 @@
       <c r="G4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="9">
         <v>14.62</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="9">
         <v>6.8714000000000004</v>
       </c>
-      <c r="J4" s="2">
-        <f t="shared" si="0"/>
+      <c r="J4" s="7">
+        <f>IF(Ship_mode="Same Day",H4*0.2,IF(Ship_mode="First Class",H4*0.1,IF(Ship_mode="Standard Class",H4*0.5,0)))</f>
         <v>1.462</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -911,18 +907,18 @@
       <c r="G5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="9">
         <v>957.57749999999999</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="9">
         <v>-383.03100000000001</v>
       </c>
-      <c r="J5" s="2">
-        <f t="shared" si="0"/>
+      <c r="J5" s="7">
+        <f>IF(Ship_mode="Same Day",H5*0.2,IF(Ship_mode="First Class",H5*0.1,IF(Ship_mode="Standard Class",H5*0.5,0)))</f>
         <v>478.78874999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -941,21 +937,21 @@
       <c r="F6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="9">
         <v>22.367999999999999</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="9">
         <v>2.5164</v>
       </c>
-      <c r="J6" s="2">
-        <f t="shared" si="0"/>
+      <c r="J6" s="7">
+        <f>IF(Ship_mode="Same Day",H6*0.2,IF(Ship_mode="First Class",H6*0.1,IF(Ship_mode="Standard Class",H6*0.5,0)))</f>
         <v>4.4736000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -977,18 +973,18 @@
       <c r="G7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="9">
         <v>48.86</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="9">
         <v>14.1694</v>
       </c>
-      <c r="J7" s="2">
-        <f t="shared" si="0"/>
+      <c r="J7" s="7">
+        <f>IF(Ship_mode="Same Day",H7*0.2,IF(Ship_mode="First Class",H7*0.1,IF(Ship_mode="Standard Class",H7*0.5,0)))</f>
         <v>4.8860000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1010,18 +1006,18 @@
       <c r="G8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="9">
         <v>7.28</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="9">
         <v>1.9656</v>
       </c>
-      <c r="J8" s="2">
-        <f t="shared" si="0"/>
+      <c r="J8" s="7">
+        <f>IF(Ship_mode="Same Day",H8*0.2,IF(Ship_mode="First Class",H8*0.1,IF(Ship_mode="Standard Class",H8*0.5,0)))</f>
         <v>0.72800000000000009</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1043,18 +1039,18 @@
       <c r="G9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="9">
         <v>907.15200000000004</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="9">
         <v>90.715199999999996</v>
       </c>
-      <c r="J9" s="2">
-        <f t="shared" si="0"/>
+      <c r="J9" s="7">
+        <f>IF(Ship_mode="Same Day",H9*0.2,IF(Ship_mode="First Class",H9*0.1,IF(Ship_mode="Standard Class",H9*0.5,0)))</f>
         <v>453.57600000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1076,18 +1072,18 @@
       <c r="G10" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="9">
         <v>18.504000000000001</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="9">
         <v>5.7824999999999998</v>
       </c>
-      <c r="J10" s="2">
-        <f t="shared" si="0"/>
+      <c r="J10" s="7">
+        <f>IF(Ship_mode="Same Day",H10*0.2,IF(Ship_mode="First Class",H10*0.1,IF(Ship_mode="Standard Class",H10*0.5,0)))</f>
         <v>1.8504000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1106,21 +1102,21 @@
       <c r="F11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="9">
         <v>114.9</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="9">
         <v>34.47</v>
       </c>
-      <c r="J11" s="2">
-        <f t="shared" si="0"/>
+      <c r="J11" s="7">
+        <f>IF(Ship_mode="Same Day",H11*0.2,IF(Ship_mode="First Class",H11*0.1,IF(Ship_mode="Standard Class",H11*0.5,0)))</f>
         <v>22.980000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1142,18 +1138,18 @@
       <c r="G12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="9">
         <v>1706.184</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="9">
         <v>85.309200000000004</v>
       </c>
-      <c r="J12" s="2">
-        <f t="shared" si="0"/>
+      <c r="J12" s="7">
+        <f>IF(Ship_mode="Same Day",H12*0.2,IF(Ship_mode="First Class",H12*0.1,IF(Ship_mode="Standard Class",H12*0.5,0)))</f>
         <v>853.09199999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1175,18 +1171,18 @@
       <c r="G13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="9">
         <v>911.42399999999998</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="9">
         <v>68.356800000000007</v>
       </c>
-      <c r="J13" s="2">
-        <f t="shared" si="0"/>
+      <c r="J13" s="7">
+        <f>IF(Ship_mode="Same Day",H13*0.2,IF(Ship_mode="First Class",H13*0.1,IF(Ship_mode="Standard Class",H13*0.5,0)))</f>
         <v>91.142400000000009</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1208,18 +1204,18 @@
       <c r="G14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="9">
         <v>15.552</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="9">
         <v>5.4432</v>
       </c>
-      <c r="J14" s="2">
-        <f t="shared" si="0"/>
+      <c r="J14" s="7">
+        <f>IF(Ship_mode="Same Day",H14*0.2,IF(Ship_mode="First Class",H14*0.1,IF(Ship_mode="Standard Class",H14*0.5,0)))</f>
         <v>7.7759999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1238,21 +1234,21 @@
       <c r="F15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="9">
         <v>407.976</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="9">
         <v>132.59219999999999</v>
       </c>
-      <c r="J15" s="2">
-        <f t="shared" si="0"/>
+      <c r="J15" s="7">
+        <f>IF(Ship_mode="Same Day",H15*0.2,IF(Ship_mode="First Class",H15*0.1,IF(Ship_mode="Standard Class",H15*0.5,0)))</f>
         <v>81.595200000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1274,18 +1270,18 @@
       <c r="G16" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="9">
         <v>68.81</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="9">
         <v>-123.858</v>
       </c>
-      <c r="J16" s="2">
-        <f t="shared" si="0"/>
+      <c r="J16" s="7">
+        <f>IF(Ship_mode="Same Day",H16*0.2,IF(Ship_mode="First Class",H16*0.1,IF(Ship_mode="Standard Class",H16*0.5,0)))</f>
         <v>6.8810000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1304,21 +1300,21 @@
       <c r="F17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="9">
         <v>2.544</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="9">
         <v>-3.8159999999999998</v>
       </c>
-      <c r="J17" s="2">
-        <f t="shared" si="0"/>
+      <c r="J17" s="7">
+        <f>IF(Ship_mode="Same Day",H17*0.2,IF(Ship_mode="First Class",H17*0.1,IF(Ship_mode="Standard Class",H17*0.5,0)))</f>
         <v>0.50880000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1340,18 +1336,18 @@
       <c r="G18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="9">
         <v>665.88</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="9">
         <v>13.317600000000001</v>
       </c>
-      <c r="J18" s="2">
-        <f t="shared" si="0"/>
+      <c r="J18" s="7">
+        <f>IF(Ship_mode="Same Day",H18*0.2,IF(Ship_mode="First Class",H18*0.1,IF(Ship_mode="Standard Class",H18*0.5,0)))</f>
         <v>66.588000000000008</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1373,18 +1369,18 @@
       <c r="G19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="9">
         <v>55.5</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="9">
         <v>9.99</v>
       </c>
-      <c r="J19" s="2">
-        <f t="shared" si="0"/>
+      <c r="J19" s="7">
+        <f>IF(Ship_mode="Same Day",H19*0.2,IF(Ship_mode="First Class",H19*0.1,IF(Ship_mode="Standard Class",H19*0.5,0)))</f>
         <v>27.75</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1403,21 +1399,21 @@
       <c r="F20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="9">
         <v>8.56</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="9">
         <v>2.4824000000000002</v>
       </c>
-      <c r="J20" s="2">
-        <f t="shared" si="0"/>
+      <c r="J20" s="7">
+        <f>IF(Ship_mode="Same Day",H20*0.2,IF(Ship_mode="First Class",H20*0.1,IF(Ship_mode="Standard Class",H20*0.5,0)))</f>
         <v>1.7120000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1439,18 +1435,18 @@
       <c r="G21" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="9">
         <v>213.48</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="9">
         <v>16.010999999999999</v>
       </c>
-      <c r="J21" s="2">
-        <f t="shared" si="0"/>
+      <c r="J21" s="7">
+        <f>IF(Ship_mode="Same Day",H21*0.2,IF(Ship_mode="First Class",H21*0.1,IF(Ship_mode="Standard Class",H21*0.5,0)))</f>
         <v>21.347999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1469,21 +1465,21 @@
       <c r="F22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="9">
         <v>22.72</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="9">
         <v>7.3840000000000003</v>
       </c>
-      <c r="J22" s="2">
-        <f t="shared" si="0"/>
+      <c r="J22" s="7">
+        <f>IF(Ship_mode="Same Day",H22*0.2,IF(Ship_mode="First Class",H22*0.1,IF(Ship_mode="Standard Class",H22*0.5,0)))</f>
         <v>4.5439999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1505,18 +1501,18 @@
       <c r="G23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="9">
         <v>19.46</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="9">
         <v>5.0595999999999997</v>
       </c>
-      <c r="J23" s="2">
-        <f t="shared" si="0"/>
+      <c r="J23" s="7">
+        <f>IF(Ship_mode="Same Day",H23*0.2,IF(Ship_mode="First Class",H23*0.1,IF(Ship_mode="Standard Class",H23*0.5,0)))</f>
         <v>9.73</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1535,21 +1531,21 @@
       <c r="F24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="9">
         <v>60.34</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="9">
         <v>15.6884</v>
       </c>
-      <c r="J24" s="2">
-        <f t="shared" si="0"/>
+      <c r="J24" s="7">
+        <f>IF(Ship_mode="Same Day",H24*0.2,IF(Ship_mode="First Class",H24*0.1,IF(Ship_mode="Standard Class",H24*0.5,0)))</f>
         <v>12.068000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1571,18 +1567,18 @@
       <c r="G25" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="9">
         <v>71.372</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="9">
         <v>-1.0196000000000001</v>
       </c>
-      <c r="J25" s="2">
-        <f t="shared" si="0"/>
+      <c r="J25" s="7">
+        <f>IF(Ship_mode="Same Day",H25*0.2,IF(Ship_mode="First Class",H25*0.1,IF(Ship_mode="Standard Class",H25*0.5,0)))</f>
         <v>7.1372</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1604,18 +1600,18 @@
       <c r="G26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="9">
         <v>1044.6300000000001</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="9">
         <v>240.26490000000001</v>
       </c>
-      <c r="J26" s="2">
-        <f t="shared" si="0"/>
+      <c r="J26" s="7">
+        <f>IF(Ship_mode="Same Day",H26*0.2,IF(Ship_mode="First Class",H26*0.1,IF(Ship_mode="Standard Class",H26*0.5,0)))</f>
         <v>522.31500000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1634,21 +1630,21 @@
       <c r="F27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="9">
         <v>11.648</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="9">
         <v>4.2224000000000004</v>
       </c>
-      <c r="J27" s="2">
-        <f t="shared" si="0"/>
+      <c r="J27" s="7">
+        <f>IF(Ship_mode="Same Day",H27*0.2,IF(Ship_mode="First Class",H27*0.1,IF(Ship_mode="Standard Class",H27*0.5,0)))</f>
         <v>2.3296000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1670,18 +1666,18 @@
       <c r="G28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="9">
         <v>90.57</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="9">
         <v>11.774100000000001</v>
       </c>
-      <c r="J28" s="2">
-        <f t="shared" si="0"/>
+      <c r="J28" s="7">
+        <f>IF(Ship_mode="Same Day",H28*0.2,IF(Ship_mode="First Class",H28*0.1,IF(Ship_mode="Standard Class",H28*0.5,0)))</f>
         <v>45.284999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1703,18 +1699,18 @@
       <c r="G29" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="9">
         <v>3083.43</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="9">
         <v>-1665.0522000000001</v>
       </c>
-      <c r="J29" s="2">
-        <f t="shared" si="0"/>
+      <c r="J29" s="7">
+        <f>IF(Ship_mode="Same Day",H29*0.2,IF(Ship_mode="First Class",H29*0.1,IF(Ship_mode="Standard Class",H29*0.5,0)))</f>
         <v>308.34300000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1733,21 +1729,21 @@
       <c r="F30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="9">
         <v>9.6180000000000003</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="9">
         <v>-7.0532000000000004</v>
       </c>
-      <c r="J30" s="2">
-        <f t="shared" si="0"/>
+      <c r="J30" s="7">
+        <f>IF(Ship_mode="Same Day",H30*0.2,IF(Ship_mode="First Class",H30*0.1,IF(Ship_mode="Standard Class",H30*0.5,0)))</f>
         <v>1.9236000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1769,18 +1765,18 @@
       <c r="G31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="9">
         <v>124.2</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="9">
         <v>15.525</v>
       </c>
-      <c r="J31" s="2">
-        <f t="shared" si="0"/>
+      <c r="J31" s="7">
+        <f>IF(Ship_mode="Same Day",H31*0.2,IF(Ship_mode="First Class",H31*0.1,IF(Ship_mode="Standard Class",H31*0.5,0)))</f>
         <v>62.1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1802,33 +1798,33 @@
       <c r="G32" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="9">
         <v>3.2639999999999998</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="9">
         <v>1.1015999999999999</v>
       </c>
-      <c r="J32" s="2">
-        <f t="shared" si="0"/>
+      <c r="J32" s="7">
+        <f>IF(Ship_mode="Same Day",H32*0.2,IF(Ship_mode="First Class",H32*0.1,IF(Ship_mode="Standard Class",H32*0.5,0)))</f>
         <v>0.32640000000000002</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="H33" s="7">
+    <row r="33" spans="2:10" ht="18.75">
+      <c r="H33" s="8">
         <f>SUM(H2:H32)</f>
         <v>11682.323499999999</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="8">
         <f>SUM(I2:I32)</f>
         <v>-1131.3215000000002</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="8">
         <f>SUM(J2:J32)</f>
         <v>3275.82395</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="B35" s="8" t="s">
+    <row r="35" spans="2:10" ht="21">
+      <c r="B35" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C35" s="5">
